--- a/TestCases_Filter.xlsx
+++ b/TestCases_Filter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="12" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="CustomLabels" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3551" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3551" uniqueCount="473">
   <si>
     <t>Objects</t>
   </si>
@@ -1470,7 +1470,19 @@
     <t>CMT - 000942</t>
   </si>
   <si>
-    <t>CMT - 000943</t>
+    <t>CMT - 000939</t>
+  </si>
+  <si>
+    <t>1/1/1980, 2:17 AM</t>
+  </si>
+  <si>
+    <t>1/1/1981, 2:17 AM</t>
+  </si>
+  <si>
+    <t>1/1/1982, 2:17 AM</t>
+  </si>
+  <si>
+    <t>1/1/1983, 2:17 AM</t>
   </si>
 </sst>
 </file>
@@ -6581,8 +6593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15340,7 +15352,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15374,8 +15386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15473,7 +15485,7 @@
         <v>29221</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>426</v>
+        <v>469</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>72</v>
@@ -15515,7 +15527,7 @@
         <v>78</v>
       </c>
       <c r="S2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -15532,7 +15544,7 @@
         <v>29587</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>427</v>
+        <v>470</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>80</v>
@@ -15574,7 +15586,7 @@
         <v>86</v>
       </c>
       <c r="S3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -15591,7 +15603,7 @@
         <v>29952</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>428</v>
+        <v>471</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>88</v>
@@ -15633,7 +15645,7 @@
         <v>94</v>
       </c>
       <c r="S4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -15650,7 +15662,7 @@
         <v>30317</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>96</v>
@@ -15692,7 +15704,7 @@
         <v>102</v>
       </c>
       <c r="S5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
